--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints0.600000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints0.600000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.845290944832298e-32</v>
+        <v>1.85327012025053e-32</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.83020681537972e-32</v>
+        <v>1.839156919795624e-32</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.813181791744012e-32</v>
+        <v>1.822556852170006e-32</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.794391345522245e-32</v>
+        <v>1.803703940712724e-32</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.774010948311425e-32</v>
+        <v>1.782832208762759e-32</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>1.752216071708579e-32</v>
+        <v>1.760175679659114e-32</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>1.729182187310704e-32</v>
+        <v>1.735968376740761e-32</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>1.705084766714887e-32</v>
+        <v>1.710444323346765e-32</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>1.680099281518126e-32</v>
+        <v>1.6838375428161e-32</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>1.654401203317413e-32</v>
+        <v>1.65638205848773e-32</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>1.628166003709844e-32</v>
+        <v>1.628311893700733e-32</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>1.601569154292412e-32</v>
+        <v>1.599861071794075e-32</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>1.574786126662109e-32</v>
+        <v>1.57126361610672e-32</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.547992392416033e-32</v>
+        <v>1.54275354997775e-32</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.521363423151175e-32</v>
+        <v>1.514564896746127e-32</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.495074690464563e-32</v>
+        <v>1.486931679750855e-32</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.469301665953191e-32</v>
+        <v>1.460087922330903e-32</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.444219821214152e-32</v>
+        <v>1.434267647825345e-32</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.420000297490927e-32</v>
+        <v>1.409697767831893e-32</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.396727153746448e-32</v>
+        <v>1.386462178685216e-32</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.374403799822116e-32</v>
+        <v>1.364512326636404e-32</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.353030604213561e-32</v>
+        <v>1.343794663133275e-32</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.332607935416445e-32</v>
+        <v>1.324255639623677e-32</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.313136161926405e-32</v>
+        <v>1.305841707555434e-32</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.294615652239151e-32</v>
+        <v>1.288499318376442e-32</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.27704677485032e-32</v>
+        <v>1.272174923534525e-32</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.260429898255551e-32</v>
+        <v>1.25681497447751e-32</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.244765390950551e-32</v>
+        <v>1.242365922653286e-32</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.230053621430957e-32</v>
+        <v>1.228774219509679e-32</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.21629495819243e-32</v>
+        <v>1.215986316494538e-32</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.203489769730617e-32</v>
+        <v>1.203948665055696e-32</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.191638424541212e-32</v>
+        <v>1.19260771664103e-32</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.180741291119858e-32</v>
+        <v>1.181909922698374e-32</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.170798737962206e-32</v>
+        <v>1.171801734675562e-32</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.161792233287518e-32</v>
+        <v>1.162222385701274e-32</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.153576750689625e-32</v>
+        <v>1.153062798574603e-32</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.14595534764882e-32</v>
+        <v>1.144194068496862e-32</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.138730923356738e-32</v>
+        <v>1.135487230216407e-32</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.131706377004984e-32</v>
+        <v>1.126813318481558e-32</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.124684607785173e-32</v>
+        <v>1.118043368040647e-32</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.117468514888909e-32</v>
+        <v>1.109048413641994e-32</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.109860997507827e-32</v>
+        <v>1.099699490033955e-32</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.101664954833533e-32</v>
+        <v>1.08986763196485e-32</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.092683286057628e-32</v>
+        <v>1.079423874182998e-32</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.082718890371752e-32</v>
+        <v>1.068239251436758e-32</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.071574666967507e-32</v>
+        <v>1.056184798474448e-32</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.059053515036511e-32</v>
+        <v>1.043131550044401e-32</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.044958333770356e-32</v>
+        <v>1.028950540894929e-32</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.029092022360695e-32</v>
+        <v>1.013512805774401e-32</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.01127562910632e-32</v>
+        <v>9.967004525259672e-33</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>9.91563526904023e-33</v>
+        <v>9.785379445022369e-33</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>9.701719564827899e-33</v>
+        <v>9.591485035147259e-33</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>9.473204146328698e-33</v>
+        <v>9.386573379561256e-33</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>9.232283981445024e-33</v>
+        <v>9.171896562191212e-33</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>8.981154038080246e-33</v>
+        <v>8.948706666964837e-33</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>8.722009284136785e-33</v>
+        <v>8.718255777808994e-33</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>8.45704468751737e-33</v>
+        <v>8.481795978650824e-33</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>8.188455216124375e-33</v>
+        <v>8.240579353417154e-33</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>7.918435837861238e-33</v>
+        <v>7.995857986035758e-33</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>7.649181520630339e-33</v>
+        <v>7.748883960433465e-33</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>7.382887232334057e-33</v>
+        <v>7.500909360537088e-33</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>7.121704865550432e-33</v>
+        <v>7.253169150598171e-33</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>6.866726939059431e-33</v>
+        <v>7.006477261798592e-33</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>6.617946999549946e-33</v>
+        <v>6.761210854472189e-33</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>6.375307595382745e-33</v>
+        <v>6.517726820391457e-33</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>6.138751274919538e-33</v>
+        <v>6.276382051329843e-33</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>5.908220586521084e-33</v>
+        <v>6.037533439059837e-33</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>5.683658078548169e-33</v>
+        <v>5.801537875353943e-33</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>5.46500629936246e-33</v>
+        <v>5.56875225198559e-33</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>5.252207797324737e-33</v>
+        <v>5.339533460727279e-33</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>5.045205120795808e-33</v>
+        <v>5.114238393351524e-33</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>4.843940818137298e-33</v>
+        <v>4.893223941631728e-33</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>4.648357437710007e-33</v>
+        <v>4.676846997340406e-33</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>4.458397527875012e-33</v>
+        <v>4.465464452250364e-33</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>4.274003636993153e-33</v>
+        <v>4.259433198134147e-33</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>4.095118313425994e-33</v>
+        <v>4.059110126765109e-33</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>3.921684105534365e-33</v>
+        <v>3.864852129915782e-33</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>3.753643561679128e-33</v>
+        <v>3.677016099358739e-33</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>3.590939230221802e-33</v>
+        <v>3.495958926867281e-33</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>3.43351365952324e-33</v>
+        <v>3.322037504213967e-33</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>3.281309397944521e-33</v>
+        <v>3.155608723171609e-33</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>3.134268993846533e-33</v>
+        <v>2.997029475512814e-33</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>2.992334995590739e-33</v>
+        <v>2.846656653010808e-33</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>2.855449951538022e-33</v>
+        <v>2.704847147438189e-33</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>2.723556410049289e-33</v>
+        <v>2.5719578505676e-33</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>2.596596919485964e-33</v>
+        <v>2.448345654172198e-33</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>2.474514028208949e-33</v>
+        <v>2.334367450024615e-33</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>2.357398414912759e-33</v>
+        <v>2.230311560910295e-33</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>2.246110760910453e-33</v>
+        <v>2.136109878230079e-33</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>2.141761158625481e-33</v>
+        <v>2.051578841898294e-33</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>2.045459828441401e-33</v>
+        <v>1.976534832596418e-33</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>1.958316990741814e-33</v>
+        <v>1.910794231005981e-33</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>1.881442865910656e-33</v>
+        <v>1.854173417808764e-33</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>1.815947674331515e-33</v>
+        <v>1.806488773686285e-33</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>1.762941636388037e-33</v>
+        <v>1.767556679320108e-33</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>1.723534972464071e-33</v>
+        <v>1.737193515391944e-33</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>1.698837902943247e-33</v>
+        <v>1.715215662583347e-33</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>1.689960648209273e-33</v>
+        <v>1.701439501575924e-33</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>1.698013428645878e-33</v>
+        <v>1.695681413051284e-33</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>1.72410646463675e-33</v>
+        <v>1.697757777691051e-33</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.953733458289601e-34</v>
+        <v>1.935060578032435e-34</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>2.578893205575916e-34</v>
+        <v>2.574117873226761e-34</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>2.440965985542565e-34</v>
+        <v>2.414213885669009e-34</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.374433735424241e-34</v>
+        <v>2.363893220806434e-34</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>2.331922725248301e-34</v>
+        <v>2.34484795447013e-34</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>2.284830741933762e-34</v>
+        <v>2.299949056625603e-34</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>2.433542252721966e-34</v>
+        <v>2.43042086786484e-34</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>3.131412002970059e-34</v>
+        <v>3.110081431102883e-34</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>4.229094816692488e-34</v>
+        <v>4.212106343466455e-34</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>4.620002597629101e-34</v>
+        <v>4.63652925817752e-34</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>4.743445375748832e-34</v>
+        <v>4.778759265993552e-34</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>4.851895328997912e-34</v>
+        <v>4.865360095715482e-34</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>4.680426205796676e-34</v>
+        <v>4.641909564229828e-34</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>4.314097781500678e-34</v>
+        <v>4.269847713793974e-34</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>4.025647052640782e-34</v>
+        <v>4.096545529401583e-34</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>3.867352314350588e-34</v>
+        <v>4.016868269434543e-34</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>3.811763986247255e-34</v>
+        <v>3.883388262662115e-34</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>3.831332986702966e-34</v>
+        <v>3.870987222430344e-34</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>3.695024504923458e-34</v>
+        <v>3.706488208843101e-34</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>3.477888816912964e-34</v>
+        <v>3.45180087191933e-34</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>3.316645108736502e-34</v>
+        <v>3.311395747236265e-34</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>3.137116228042246e-34</v>
+        <v>3.141901505097984e-34</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>2.961229362681678e-34</v>
+        <v>2.969207962110083e-34</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>2.816017880579883e-34</v>
+        <v>2.833113719920041e-34</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>2.69224906452586e-34</v>
+        <v>2.718856804839152e-34</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.576761396330538e-34</v>
+        <v>2.605764551662494e-34</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.456848432086292e-34</v>
+        <v>2.474753510912209e-34</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.324446962231111e-34</v>
+        <v>2.32295539038977e-34</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.174208312014947e-34</v>
+        <v>2.156981628110015e-34</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>2.001054893736115e-34</v>
+        <v>1.983530180288653e-34</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.809119543987191e-34</v>
+        <v>1.808027883387767e-34</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.614499218409417e-34</v>
+        <v>1.634250419962371e-34</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.434090399748441e-34</v>
+        <v>1.465863130778542e-34</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.282786095731132e-34</v>
+        <v>1.307346285925711e-34</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.162266633092938e-34</v>
+        <v>1.168554518080212e-34</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.068855077134852e-34</v>
+        <v>1.061466403856885e-34</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>9.979058223004028e-35</v>
+        <v>9.900549005714068e-35</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>9.428054656715679e-35</v>
+        <v>9.417586802812961e-35</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>8.968512272829703e-35</v>
+        <v>9.023439493346395e-35</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>8.563819746909456e-35</v>
+        <v>8.649078492802933e-35</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>8.205261371211709e-35</v>
+        <v>8.292708831648134e-35</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>7.885153871833751e-35</v>
+        <v>7.955023897571529e-35</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>7.595813974873286e-35</v>
+        <v>7.636717078263093e-35</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>7.329558406427581e-35</v>
+        <v>7.338481761412359e-35</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>7.078985237521462e-35</v>
+        <v>7.060915112895988e-35</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>6.840557561889911e-35</v>
+        <v>6.803292435438587e-35</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>6.613546766669376e-35</v>
+        <v>6.56392857697737e-35</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>6.397287456462226e-35</v>
+        <v>6.341116764660525e-35</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>6.191114235870854e-35</v>
+        <v>6.133150225636278e-35</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>5.994361709497925e-35</v>
+        <v>5.938322187053129e-35</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>5.806364481945828e-35</v>
+        <v>5.754925876059296e-35</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>5.626457157817042e-35</v>
+        <v>5.581254519803092e-35</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>5.453974341713972e-35</v>
+        <v>5.415601345432756e-35</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>5.28831732614299e-35</v>
+        <v>5.256467613251602e-35</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>5.129217775516534e-35</v>
+        <v>5.103385179909176e-35</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>4.976509472519208e-35</v>
+        <v>4.956204460371215e-35</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>4.830026229731577e-35</v>
+        <v>4.814775962863587e-35</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>4.689601859734e-35</v>
+        <v>4.67895019561196e-35</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>4.555070175106907e-35</v>
+        <v>4.548577666842066e-35</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>4.426264988430672e-35</v>
+        <v>4.423508884779585e-35</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>4.303020112285838e-35</v>
+        <v>4.303594357650363e-35</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>4.185169359252776e-35</v>
+        <v>4.188684593680075e-35</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>4.072546541911866e-35</v>
+        <v>4.078630101094407e-35</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>3.964985472843637e-35</v>
+        <v>3.973281388119194e-35</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>3.862319964628469e-35</v>
+        <v>3.872488962980118e-35</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>3.764383829846789e-35</v>
+        <v>3.776103333902912e-35</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>3.671010881078986e-35</v>
+        <v>3.683975009113269e-35</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>3.582034930905574e-35</v>
+        <v>3.595954496837007e-35</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>3.497289791906938e-35</v>
+        <v>3.511892305299818e-35</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>3.416609276663472e-35</v>
+        <v>3.431638942727399e-35</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>3.339827197755679e-35</v>
+        <v>3.355044917345557e-35</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>3.26677736776395e-35</v>
+        <v>3.281960737379987e-35</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>3.197293599268715e-35</v>
+        <v>3.212236911056426e-35</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>3.131209704850372e-35</v>
+        <v>3.145723946600576e-35</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>3.068359497089412e-35</v>
+        <v>3.082272352238232e-35</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>3.008576788566235e-35</v>
+        <v>3.021732636195098e-35</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>2.951695391861242e-35</v>
+        <v>2.963955306696881e-35</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>2.897549119554915e-35</v>
+        <v>2.908790871969366e-35</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>2.845971784227657e-35</v>
+        <v>2.856089840238262e-35</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>2.796797198459897e-35</v>
+        <v>2.805702719729302e-35</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>2.749859174832044e-35</v>
+        <v>2.7574800186682e-35</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>2.704991525924568e-35</v>
+        <v>2.711272245280731e-35</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>2.66202806431788e-35</v>
+        <v>2.666929907792608e-35</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>2.620802602592406e-35</v>
+        <v>2.624303514429565e-35</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>2.58114895332856e-35</v>
+        <v>2.583243573417317e-35</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>2.542900929106804e-35</v>
+        <v>2.543600592981635e-35</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>2.505892342507553e-35</v>
+        <v>2.505225081348235e-35</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>2.469957012326428e-35</v>
+        <v>2.467967552220464e-35</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>2.434950964539122e-35</v>
+        <v>2.431698091081379e-35</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>2.400802310407134e-35</v>
+        <v>2.396350314097766e-35</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>2.367453762007155e-35</v>
+        <v>2.361870705524006e-35</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>2.334848031415922e-35</v>
+        <v>2.32820574961453e-35</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>2.302927830710125e-35</v>
+        <v>2.295301930623718e-35</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>2.271635871966474e-35</v>
+        <v>2.263105732805971e-35</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>2.240914867261658e-35</v>
+        <v>2.231563640415671e-35</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>2.210707528672414e-35</v>
+        <v>2.200622137707245e-35</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>2.180956568275435e-35</v>
+        <v>2.170227708935078e-35</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>2.151604698147425e-35</v>
+        <v>2.140326838353567e-35</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>2.12259463036508e-35</v>
+        <v>2.110866010217097e-35</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>2.093869077005132e-35</v>
+        <v>2.081791708780094e-35</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>2.065370750144274e-35</v>
+        <v>2.053050418296941e-35</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>2.0370423618592e-35</v>
+        <v>2.024588623022025e-35</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>2.008826624226643e-35</v>
+        <v>1.996352807209769e-35</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.980666249323296e-35</v>
+        <v>1.968289455114559e-35</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.952503949225866e-35</v>
+        <v>1.940345050990792e-35</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.924282436011047e-35</v>
+        <v>1.912466079092855e-35</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.895944421755571e-35</v>
+        <v>1.88459902367517e-35</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.867432618536132e-35</v>
+        <v>1.856690368992124e-35</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.838689738429423e-35</v>
+        <v>1.828686599298102e-35</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.809658493512178e-35</v>
+        <v>1.800534198847527e-35</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.780281595861089e-35</v>
+        <v>1.772179651894784e-35</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.750501757552863e-35</v>
+        <v>1.743569442694273e-35</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.720261690664194e-35</v>
+        <v>1.714650055500378e-35</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.689504107271815e-35</v>
+        <v>1.685367974567523e-35</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.658183331792379e-35</v>
+        <v>1.655676835727543e-35</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.626315731853755e-35</v>
+        <v>1.625568484753741e-35</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.593938311045037e-35</v>
+        <v>1.595047476285642e-35</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.561088086852404e-35</v>
+        <v>1.564118373521424e-35</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.527802076762047e-35</v>
+        <v>1.532785739659271e-35</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.494117298260146e-35</v>
+        <v>1.501054137897357e-35</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.460070768832924e-35</v>
+        <v>1.468928131433898e-35</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.425699505966556e-35</v>
+        <v>1.436412283467067e-35</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.391040527147222e-35</v>
+        <v>1.403511157195036e-35</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.356130849861145e-35</v>
+        <v>1.370229315816022e-35</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.321007491594502e-35</v>
+        <v>1.336571322528197e-35</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.285707469833486e-35</v>
+        <v>1.30254174052975e-35</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.250267802064274e-35</v>
+        <v>1.268145133018851e-35</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.21472550577309e-35</v>
+        <v>1.233386063193718e-35</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>1.179117598446113e-35</v>
+        <v>1.198269094252525e-35</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>1.143481097569518e-35</v>
+        <v>1.162798789393441e-35</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>1.10785302062953e-35</v>
+        <v>1.126979711814685e-35</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>1.072269559379905e-35</v>
+        <v>1.09082139819826e-35</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>1.036758134150092e-35</v>
+        <v>1.054386216550167e-35</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>1.0013408760327e-35</v>
+        <v>1.017768392574066e-35</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>9.6603984318272e-36</v>
+        <v>9.81062591285831e-36</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>9.308770937550967e-36</v>
+        <v>9.443634777012876e-36</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>8.958746859047889e-36</v>
+        <v>9.077657168362776e-36</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>8.610546777867412e-36</v>
+        <v>8.713639737066264e-36</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>8.264391275559439e-36</v>
+        <v>8.352529133282085e-36</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>7.920500933673417e-36</v>
+        <v>7.995272007168489e-36</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>7.579096333758786e-36</v>
+        <v>7.642815008883741e-36</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>7.240398057365451e-36</v>
+        <v>7.296104788586574e-36</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>6.904626686042855e-36</v>
+        <v>6.956087996435245e-36</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>6.572002801340444e-36</v>
+        <v>6.623711282588025e-36</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>6.242903435872384e-36</v>
+        <v>6.300005005642639e-36</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>5.919622091508403e-36</v>
+        <v>5.987024922461209e-36</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>5.605736745536997e-36</v>
+        <v>5.687514042707654e-36</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>5.304849048957452e-36</v>
+        <v>5.404228042558442e-36</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>5.020560652769461e-36</v>
+        <v>5.139922598190417e-36</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>4.756473207972305e-36</v>
+        <v>4.897353385780035e-36</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>4.516188365565402e-36</v>
+        <v>4.679276081503887e-36</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>4.303307776548083e-36</v>
+        <v>4.48844636153848e-36</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>4.121433091919961e-36</v>
+        <v>4.327619902060576e-36</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>3.974165962680352e-36</v>
+        <v>4.199552379246674e-36</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>3.865108039828635e-36</v>
+        <v>4.106999469273325e-36</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>3.797860974364329e-36</v>
+        <v>4.052716848317204e-36</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>3.776026417286797e-36</v>
+        <v>4.039460192554852e-36</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>3.802822917685896e-36</v>
+        <v>4.069650397360992e-36</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>3.876018802407841e-36</v>
+        <v>4.140945578997257e-36</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>3.989326570090083e-36</v>
+        <v>4.247459592039129e-36</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>4.136362152430371e-36</v>
+        <v>4.383221904227432e-36</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>4.310741481126521e-36</v>
+        <v>4.542261983303042e-36</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>4.506080487876104e-36</v>
+        <v>4.718609297006616e-36</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>4.715995104376923e-36</v>
+        <v>4.906293313079021e-36</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>4.93410126232671e-36</v>
+        <v>5.099343499261059e-36</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>5.154014893423293e-36</v>
+        <v>5.291789323293616e-36</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>5.369351929364203e-36</v>
+        <v>5.477660252917316e-36</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>5.573728301847268e-36</v>
+        <v>5.650985755873048e-36</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>5.760759942570299e-36</v>
+        <v>5.80579529990168e-36</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>5.924062783230855e-36</v>
+        <v>5.936118352743866e-36</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>6.057252755526758e-36</v>
+        <v>6.035984382140488e-36</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>6.154544090634684e-36</v>
+        <v>6.100544928095283e-36</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>6.218523218421341e-36</v>
+        <v>6.140653051774022e-36</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>6.257937112119907e-36</v>
+        <v>6.178715517929834e-36</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>6.281708854504647e-36</v>
+        <v>6.237404068364979e-36</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>6.316595968489962e-36</v>
+        <v>6.337788601161632e-36</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>6.435608617546567e-36</v>
+        <v>6.496298713703733e-36</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>6.654425765693097e-36</v>
+        <v>6.700943269747903e-36</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>6.882654562891488e-36</v>
+        <v>6.8945169896429e-36</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>7.032362805628839e-36</v>
+        <v>7.022717176043005e-36</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>7.085853958456798e-36</v>
+        <v>7.071827943918044e-36</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>7.050462321291794e-36</v>
+        <v>7.042597879710138e-36</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>6.933552889687174e-36</v>
+        <v>6.935793307829674e-36</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>6.743153164642697e-36</v>
+        <v>6.753046732445231e-36</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>6.500354416105813e-36</v>
+        <v>6.513070626336009e-36</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>6.238207224025251e-36</v>
+        <v>6.250213427693927e-36</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>5.99020324157025e-36</v>
+        <v>5.999400247246345e-36</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>5.789834121910385e-36</v>
+        <v>5.795556195720966e-36</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>5.670591518214878e-36</v>
+        <v>5.673606383845143e-36</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>5.665967083653073e-36</v>
+        <v>5.668475922346342e-36</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>5.809452471394408e-36</v>
+        <v>5.815089921952134e-36</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>6.134539334608108e-36</v>
+        <v>6.148373493389868e-36</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>6.652948296883495e-36</v>
+        <v>6.680276487894414e-36</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>7.123604586567253e-36</v>
+        <v>7.155970385797903e-36</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>7.224264519349751e-36</v>
+        <v>7.234744467019441e-36</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>7.035783095394836e-36</v>
+        <v>7.000174199943209e-36</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>6.762099976050405e-36</v>
+        <v>6.665621952582364e-36</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>6.51245708089417e-36</v>
+        <v>6.353351685041182e-36</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>6.275407826152974e-36</v>
+        <v>6.069521729379447e-36</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>6.031674451587779e-36</v>
+        <v>5.812756612558275e-36</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>5.761981623954268e-36</v>
+        <v>5.581681291038921e-36</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>5.459867595957848e-36</v>
+        <v>5.377188314936665e-36</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>5.161594612284721e-36</v>
+        <v>5.207731010363198e-36</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>4.912318578081499e-36</v>
+        <v>5.083336596023516e-36</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>4.757195398494759e-36</v>
+        <v>5.014032290622612e-36</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>4.736098838139334e-36</v>
+        <v>5.00748225189542e-36</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>4.817868078744669e-36</v>
+        <v>5.039572033934791e-36</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>4.920483499287356e-36</v>
+        <v>5.063434586837818e-36</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>4.960820232243807e-36</v>
+        <v>5.031708408717407e-36</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>4.873943885042055e-36</v>
+        <v>4.907748663906626e-36</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>4.673017731380603e-36</v>
+        <v>4.70092067448445e-36</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>4.392159790907463e-36</v>
+        <v>4.432934960699213e-36</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>4.065488339516467e-36</v>
+        <v>4.125502193762798e-36</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>3.727121621628997e-36</v>
+        <v>3.800333042858756e-36</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>3.407758934318521e-36</v>
+        <v>3.478917825396459e-36</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>3.125273979747204e-36</v>
+        <v>3.18192024687729e-36</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>2.894533550795212e-36</v>
+        <v>2.929810216955933e-36</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>2.730404440342863e-36</v>
+        <v>2.743057645287217e-36</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>2.64655565808008e-36</v>
+        <v>2.640707126695634e-36</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>2.63785160272909e-36</v>
+        <v>2.619426509440915e-36</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>2.684215934528615e-36</v>
+        <v>2.658104751322889e-36</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>2.76516014369003e-36</v>
+        <v>2.735140344039232e-36</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>2.860195720424587e-36</v>
+        <v>2.828931779287503e-36</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>2.94883415494365e-36</v>
+        <v>2.917877548765369e-36</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>3.010586937458553e-36</v>
+        <v>2.980376144170468e-36</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>3.02496555818062e-36</v>
+        <v>2.994826057200429e-36</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>2.971567804144247e-36</v>
+        <v>2.939716872804558e-36</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>2.841232050959674e-36</v>
+        <v>2.805403523087588e-36</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>2.647070892971472e-36</v>
+        <v>2.605753173176168e-36</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>2.404819066578067e-36</v>
+        <v>2.35740087046128e-36</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>2.13021130817763e-36</v>
+        <v>2.076981662333644e-36</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.838982354168404e-36</v>
+        <v>1.781130596184056e-36</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.546866940948507e-36</v>
+        <v>1.486482719403184e-36</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.269599804916452e-36</v>
+        <v>1.209673079382095e-36</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.022915682470351e-36</v>
+        <v>9.673367235114509e-37</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>8.225162843237663e-37</v>
+        <v>7.7607241324009e-37</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>6.772741224401371e-37</v>
+        <v>6.44975540686541e-37</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>5.809085966784974e-37</v>
+        <v>5.664924882125149e-37</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>5.251017060243727e-37</v>
+        <v>5.308311074549341e-37</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>5.015354494632832e-37</v>
+        <v>5.281992500507252e-37</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>5.018918259807727e-37</v>
+        <v>5.488047676368092e-37</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>5.178528345623483e-37</v>
+        <v>5.828555118501002e-37</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>5.411004741935469e-37</v>
+        <v>6.205593343275367e-37</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>5.63316743859869e-37</v>
+        <v>6.521240867060033e-37</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>5.766132554522141e-37</v>
+        <v>6.682866360027628e-37</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>5.796356412096527e-37</v>
+        <v>6.678296905409833e-37</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>5.761140693769049e-37</v>
+        <v>6.557969385054963e-37</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>5.699126952091259e-37</v>
+        <v>6.373970565821869e-37</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>5.64895673961466e-37</v>
+        <v>6.178387214569238e-37</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>5.649271608890782e-37</v>
+        <v>6.023306098155739e-37</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>5.738713112471147e-37</v>
+        <v>5.960813983440254e-37</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>5.955922802907252e-37</v>
+        <v>6.042997637281419e-37</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>6.339542232750604e-37</v>
+        <v>6.321943826537954e-37</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>6.915047807538608e-37</v>
+        <v>6.833234801158229e-37</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>7.653622018222425e-37</v>
+        <v>7.544387119879648e-37</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>8.512452959964834e-37</v>
+        <v>8.405373234891132e-37</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>9.448728713602254e-37</v>
+        <v>9.366165580421423e-37</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>1.041963735997154e-36</v>
+        <v>1.037673659069973e-36</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>1.138236697990823e-36</v>
+        <v>1.138705869995385e-36</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.229410565424919e-36</v>
+        <v>1.234710434241299e-36</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.311204146383115e-36</v>
+        <v>1.320684595230624e-36</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.379369689919258e-36</v>
+        <v>1.391660709477802e-36</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.435931375916787e-36</v>
+        <v>1.449256674532599e-36</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.496525238373083e-36</v>
+        <v>1.509382864419666e-36</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.578571350946657e-36</v>
+        <v>1.589822898694625e-36</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.699489787296096e-36</v>
+        <v>1.708360396913166e-36</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.876700621079959e-36</v>
+        <v>1.882778978630957e-36</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>2.12762392595694e-36</v>
+        <v>2.130862263403794e-36</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.469679775585381e-36</v>
+        <v>2.47039387078713e-36</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>2.920288243623936e-36</v>
+        <v>2.919157420336724e-36</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>3.496472960693008e-36</v>
+        <v>3.49453640894811e-36</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>4.1930493861958e-36</v>
+        <v>4.19150003514652e-36</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>4.971288469267498e-36</v>
+        <v>4.971161640778162e-36</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>5.789675860252429e-36</v>
+        <v>5.791823416895313e-36</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>6.606697209494992e-36</v>
+        <v>6.611787554550326e-36</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>7.380838167338469e-36</v>
+        <v>7.389356244794436e-36</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>8.070584384127276e-36</v>
+        <v>8.082831678680005e-36</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>8.634421510205663e-36</v>
+        <v>8.650516047259241e-36</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>9.030835195917148e-36</v>
+        <v>9.050711541583607e-36</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>9.227123700789975e-36</v>
+        <v>9.250552736227934e-36</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>9.236706945784512e-36</v>
+        <v>9.263399358155391e-36</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>9.088042628116176e-36</v>
+        <v>9.117682653380877e-36</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>8.809596720790091e-36</v>
+        <v>8.84184216227878e-36</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>8.429835196811217e-36</v>
+        <v>8.464317425223328e-36</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>7.977224029184538e-36</v>
+        <v>8.013547982588772e-36</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>7.480229190914807e-36</v>
+        <v>7.517973374749132e-36</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>6.967316655007477e-36</v>
+        <v>7.006033142079125e-36</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>6.466951964523675e-36</v>
+        <v>6.506166396000943e-36</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>6.001837965609167e-36</v>
+        <v>6.041062844432328e-36</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>5.57446816273049e-36</v>
+        <v>5.61324947259719e-36</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>5.182908395256922e-36</v>
+        <v>5.220835814376669e-36</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>4.825224502557951e-36</v>
+        <v>4.861931403652121e-36</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>4.499482324002932e-36</v>
+        <v>4.534645774304762e-36</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>4.203747698961646e-36</v>
+        <v>4.237088460216245e-36</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>3.936086466803434e-36</v>
+        <v>3.967368995267771e-36</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>3.694564466897786e-36</v>
+        <v>3.723596913340699e-36</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>3.4772475386141e-36</v>
+        <v>3.50388174831629e-36</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>3.282201521322065e-36</v>
+        <v>3.3063330340761e-36</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>3.107492254391066e-36</v>
+        <v>3.129060304501379e-36</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>2.951185577190531e-36</v>
+        <v>2.97017309347342e-36</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>2.81134732909009e-36</v>
+        <v>2.827780934873719e-36</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.686043349459161e-36</v>
+        <v>2.699993362583559e-36</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>2.573339477667187e-36</v>
+        <v>2.584919910484248e-36</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>2.47130155308376e-36</v>
+        <v>2.480670112457247e-36</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>2.377995415078318e-36</v>
+        <v>2.385353502383855e-36</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>2.291640823294943e-36</v>
+        <v>2.297228035565414e-36</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>2.211485760984082e-36</v>
+        <v>2.215543157268592e-36</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>2.13719950468898e-36</v>
+        <v>2.139954555205458e-36</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>2.068452603734714e-36</v>
+        <v>2.070119144399346e-36</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>2.004915607446399e-36</v>
+        <v>2.005693839873629e-36</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.94625906514913e-36</v>
+        <v>1.946335556651652e-36</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.892153526168074e-36</v>
+        <v>1.891701209756842e-36</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>1.84226953982832e-36</v>
+        <v>1.841447714212541e-36</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>1.796277655454967e-36</v>
+        <v>1.795231985042104e-36</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>1.75384842237317e-36</v>
+        <v>1.75271093726894e-36</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>1.714652389908026e-36</v>
+        <v>1.713541485916404e-36</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>1.678360107384635e-36</v>
+        <v>1.677380546007851e-36</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.644642124128147e-36</v>
+        <v>1.643885032566684e-36</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>1.613168989463661e-36</v>
+        <v>1.612711860616259e-36</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>1.583611252716281e-36</v>
+        <v>1.583517945179936e-36</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>1.555639463211162e-36</v>
+        <v>1.555960201281123e-36</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.528924170273371e-36</v>
+        <v>1.529695543943145e-36</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>1.503135923228049e-36</v>
+        <v>1.504380888189398e-36</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>1.477945271400336e-36</v>
+        <v>1.479673149043276e-36</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>1.453022764115301e-36</v>
+        <v>1.455229241528104e-36</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.428038950698108e-36</v>
+        <v>1.430706080667301e-36</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.402664380473827e-36</v>
+        <v>1.405760581484194e-36</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.376569602767598e-36</v>
+        <v>1.380049659002176e-36</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.34942516690456e-36</v>
+        <v>1.353230228244644e-36</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.320901622209782e-36</v>
+        <v>1.324959204234921e-36</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.290669518008405e-36</v>
+        <v>1.294893501996402e-36</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.258427540930496e-36</v>
+        <v>1.262719290048238e-36</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.224202439725733e-36</v>
+        <v>1.228463813066222e-36</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.188233075699459e-36</v>
+        <v>1.192374842665825e-36</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.150761866071326e-36</v>
+        <v>1.154703847437915e-36</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.112031228060884e-36</v>
+        <v>1.11570229597326e-36</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.072283578887783e-36</v>
+        <v>1.075621656862728e-36</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.031761335771677e-36</v>
+        <v>1.034713398697191e-36</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>9.907069159321125e-37</v>
+        <v>9.93228990067409e-37</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>9.493627365887418e-37</v>
+        <v>9.514198995642555e-37</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>9.079712149612202e-37</v>
+        <v>9.095375957786018e-37</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>8.667747682690904e-37</v>
+        <v>8.678335473012075e-37</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>8.260158137320441e-37</v>
+        <v>8.265592227229825e-37</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>7.85936768569625e-37</v>
+        <v>7.859660906346868e-37</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>7.467800500014879e-37</v>
+        <v>7.463056196271931e-37</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>7.087880752472841e-37</v>
+        <v>7.078292782913704e-37</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>6.722032615265621e-37</v>
+        <v>6.707885352179838e-37</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>6.372680260589752e-37</v>
+        <v>6.354348589979041e-37</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>6.042200700492718e-37</v>
+        <v>6.020148258886976e-37</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>5.731608345744687e-37</v>
+        <v>5.706336576411136e-37</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>5.44037998852896e-37</v>
+        <v>5.412370654281221e-37</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>5.167910097112563e-37</v>
+        <v>5.137622202453297e-37</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>4.913593139761789e-37</v>
+        <v>4.881462930882696e-37</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>4.676823584743886e-37</v>
+        <v>4.643264549525702e-37</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>4.456995900325218e-37</v>
+        <v>4.422398768337713e-37</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>4.25350455477279e-37</v>
+        <v>4.21823729727478e-37</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>4.065744016353554e-37</v>
+        <v>4.030151846292888e-37</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>3.89310875333396e-37</v>
+        <v>3.857514125347525e-37</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>3.734993233980967e-37</v>
+        <v>3.69969584439469e-37</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>3.590791926561491e-37</v>
+        <v>3.556068713390336e-37</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>3.459899299342058e-37</v>
+        <v>3.426004442290027e-37</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>3.341709820589591e-37</v>
+        <v>3.308874741049725e-37</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>3.235617958570969e-37</v>
+        <v>3.204051319625345e-37</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>3.141018181552787e-37</v>
+        <v>3.110905887972522e-37</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>3.057304957801934e-37</v>
+        <v>3.028810156047183e-37</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.98387275558526e-37</v>
+        <v>2.957135833805214e-37</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.92011604316942e-37</v>
+        <v>2.895254631202309e-37</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.865429288821316e-37</v>
+        <v>2.842538258194409e-37</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.819206960807639e-37</v>
+        <v>2.798358424737242e-37</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.780843527395229e-37</v>
+        <v>2.762086840786687e-37</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.749733456850898e-37</v>
+        <v>2.733095216298592e-37</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.725271217441378e-37</v>
+        <v>2.71075526122873e-37</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>2.706851277433487e-37</v>
+        <v>2.694438685532956e-37</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>2.693868105094022e-37</v>
+        <v>2.683517199167101e-37</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>2.68571616868975e-37</v>
+        <v>2.677362512086976e-37</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>2.681789936487468e-37</v>
+        <v>2.675346334248413e-37</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.681483876753965e-37</v>
+        <v>2.676840375607239e-37</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.684192457756028e-37</v>
+        <v>2.68121634611928e-37</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.689310147760444e-37</v>
+        <v>2.687845955740361e-37</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.696231415033995e-37</v>
+        <v>2.6961009144263e-37</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.704350727843483e-37</v>
+        <v>2.705352932132939e-37</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.71306255445568e-37</v>
+        <v>2.714973718816088e-37</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.721761363137388e-37</v>
+        <v>2.724334984431587e-37</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.72989394732512e-37</v>
+        <v>2.732862713734993e-37</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.73770651651749e-37</v>
+        <v>2.740812093697572e-37</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.746069209529739e-37</v>
+        <v>2.749085488144191e-37</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>2.75586871577938e-37</v>
+        <v>2.758602428175591e-37</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>2.767991724683918e-37</v>
+        <v>2.770282444892509e-37</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.783324925660896e-37</v>
+        <v>2.785045069395712e-37</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>2.802755008127823e-37</v>
+        <v>2.80380983278594e-37</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>2.827168661502196e-37</v>
+        <v>2.827496266163916e-37</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>2.857452575201576e-37</v>
+        <v>2.857023900630432e-37</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.894493438643428e-37</v>
+        <v>2.893312267286182e-37</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>2.939177941245336e-37</v>
+        <v>2.937280897231976e-37</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>2.99239277242479e-37</v>
+        <v>2.989849321568534e-37</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>3.05502462159925e-37</v>
+        <v>3.051937071396544e-37</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>3.127960178186348e-37</v>
+        <v>3.124463677816865e-37</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>3.21208613160355e-37</v>
+        <v>3.208348671930194e-37</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>3.308289171268284e-37</v>
+        <v>3.304511584837187e-37</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>3.417455986598242e-37</v>
+        <v>3.413871947638764e-37</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>3.540473267010864e-37</v>
+        <v>3.537349291435593e-37</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>3.678227701923537e-37</v>
+        <v>3.675863147328289e-37</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>3.831605980754029e-37</v>
+        <v>3.830333046417851e-37</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>4.001494792919744e-37</v>
+        <v>4.001678519804908e-37</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>4.188780827838023e-37</v>
+        <v>4.190819098590032e-37</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>4.393811476493451e-37</v>
+        <v>4.398127213839961e-37</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>4.611134464714592e-37</v>
+        <v>4.618091732326977e-37</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>4.831767383254718e-37</v>
+        <v>4.841620318094427e-37</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>5.046677802374659e-37</v>
+        <v>5.05956989108658e-37</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>5.246833292334483e-37</v>
+        <v>5.262797371246924e-37</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>5.423201423394987e-37</v>
+        <v>5.442159678519695e-37</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>5.566749765816415e-37</v>
+        <v>5.588513732848562e-37</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>5.668445889859126e-37</v>
+        <v>5.692716454177315e-37</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>5.719257365783745e-37</v>
+        <v>5.745624762450011e-37</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>5.71015176385059e-37</v>
+        <v>5.738095577610399e-37</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>5.632096654320197e-37</v>
+        <v>5.660985819602442e-37</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>5.476059607452866e-37</v>
+        <v>5.505152408369872e-37</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>5.233008193509065e-37</v>
+        <v>5.261452263856585e-37</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>4.897113230344342e-37</v>
+        <v>4.923973149671431e-37</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>4.48456398366076e-37</v>
+        <v>4.509010966829226e-37</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>4.020805916780754e-37</v>
+        <v>4.042197556373032e-37</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>3.531316524652034e-37</v>
+        <v>3.549197066924557e-37</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>3.041573302223564e-37</v>
+        <v>3.055673647106773e-37</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>2.577053744444307e-37</v>
+        <v>2.587291445542653e-37</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>2.163235346261973e-37</v>
+        <v>2.169714610853901e-37</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.82559560262556e-37</v>
+        <v>1.828607291663524e-37</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.589612008483792e-37</v>
+        <v>1.589633636594253e-37</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.474976725206876e-37</v>
+        <v>1.472636749957592e-37</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.474961883588009e-37</v>
+        <v>1.470876624373144e-37</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.57530202785585e-37</v>
+        <v>1.570029139151167e-37</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.761731133449191e-37</v>
+        <v>1.755769601301112e-37</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>2.01998317580632e-37</v>
+        <v>2.013773317831931e-37</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>2.335792130366315e-37</v>
+        <v>2.329715595753364e-37</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>2.694891972567569e-37</v>
+        <v>2.689271742074469e-37</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>3.083016677848322e-37</v>
+        <v>3.078117063804151e-37</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>3.485900221647885e-37</v>
+        <v>3.48192686795238e-37</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>3.889276579404517e-37</v>
+        <v>3.886376461528079e-37</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>4.278879726556477e-37</v>
+        <v>4.277141151540171e-37</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>4.640443638543073e-37</v>
+        <v>4.639896244998629e-37</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>4.959702290802545e-37</v>
+        <v>4.960317048912353e-37</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>5.222389658773288e-37</v>
+        <v>5.224078870290402e-37</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>5.414239717894381e-37</v>
+        <v>5.416857016142519e-37</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>5.520986443604163e-37</v>
+        <v>5.524326793477707e-37</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>5.528363811341267e-37</v>
+        <v>5.53216350930526e-37</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>5.425142390418967e-37</v>
+        <v>5.429089587818116e-37</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>5.220450297156041e-37</v>
+        <v>5.22425554924646e-37</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>4.931783586061537e-37</v>
+        <v>4.935208851081059e-37</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>4.576664036379838e-37</v>
+        <v>4.579522764697022e-37</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>4.172613427356472e-37</v>
+        <v>4.17477056147061e-37</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>3.737153538235616e-37</v>
+        <v>3.738525512776728e-37</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>3.287806148262537e-37</v>
+        <v>3.288360889991373e-37</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>2.842093036682548e-37</v>
+        <v>2.84184996449059e-37</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>2.417535982739753e-37</v>
+        <v>2.416566007649212e-37</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>2.031656765679478e-37</v>
+        <v>2.030082290843294e-37</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.701965065461582e-37</v>
+        <v>1.699959947626678e-37</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.439268848973604e-37</v>
+        <v>1.437037053234627e-37</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.236557067867532e-37</v>
+        <v>1.234275913331912e-37</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.083889882911772e-37</v>
+        <v>1.081700714373967e-37</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>9.713274548743437e-38</v>
+        <v>9.693356428158423e-38</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>8.889299445237578e-38</v>
+        <v>8.872048851130755e-38</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>8.267575126281601e-38</v>
+        <v>8.253326277208428e-38</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>7.749029266612513e-38</v>
+        <v>7.737757862633721e-38</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>7.266983234004474e-38</v>
+        <v>7.25842812015846e-38</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>6.814192271102808e-38</v>
+        <v>6.808078657758662e-38</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>6.389778405923549e-38</v>
+        <v>6.38584178100416e-38</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>5.992863666482622e-38</v>
+        <v>5.990849795464699e-38</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>5.622570080794899e-38</v>
+        <v>5.622235006708956e-38</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>5.27801967687633e-38</v>
+        <v>5.279129720306699e-38</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>4.95833448274278e-38</v>
+        <v>4.9606662418276e-38</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>4.662636526409252e-38</v>
+        <v>4.665976876840479e-38</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>4.390047835891629e-38</v>
+        <v>4.394193930915026e-38</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>4.13969043920571e-38</v>
+        <v>4.144449709620856e-38</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>3.91068636436663e-38</v>
+        <v>3.915876518526913e-38</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>3.702157639390204e-38</v>
+        <v>3.707606663202826e-38</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>3.513226292292179e-38</v>
+        <v>3.518772449218153e-38</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>3.343014351087798e-38</v>
+        <v>3.348506182141947e-38</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>3.190643843792953e-38</v>
+        <v>3.195940167543915e-38</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>3.055236798422952e-38</v>
+        <v>3.060206710993174e-38</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>2.935915242993523e-38</v>
+        <v>2.940438118059268e-38</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>2.831801205520338e-38</v>
+        <v>2.835766694311678e-38</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.742016714018793e-38</v>
+        <v>2.74532474531961e-38</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.665683796504571e-38</v>
+        <v>2.668244576652562e-38</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.601924480993306e-38</v>
+        <v>2.603658493879981e-38</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.549860795500468e-38</v>
+        <v>2.550698802571146e-38</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.508614768041704e-38</v>
+        <v>2.508497808295517e-38</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.47730842663262e-38</v>
+        <v>2.476187816622511e-38</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.455063799288744e-38</v>
+        <v>2.452901133121469e-38</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.441002914025699e-38</v>
+        <v>2.437770063361826e-38</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.434247798859047e-38</v>
+        <v>2.429926912912956e-38</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.433920481804384e-38</v>
+        <v>2.428503987344265e-38</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.439142990877287e-38</v>
+        <v>2.432633592225145e-38</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.449037354093351e-38</v>
+        <v>2.441448033125e-38</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.462725599468155e-38</v>
+        <v>2.454079615613222e-38</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.479329755017265e-38</v>
+        <v>2.46966064525919e-38</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.497971848756298e-38</v>
+        <v>2.487323427632331e-38</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.517773908700821e-38</v>
+        <v>2.506200268302025e-38</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.537857962866399e-38</v>
+        <v>2.525423472837651e-38</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>2.557346039268653e-38</v>
+        <v>2.544125346808637e-38</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>2.575360165923133e-38</v>
+        <v>2.561438195784348e-38</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>2.591022370845453e-38</v>
+        <v>2.576494325334211e-38</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.603454682051182e-38</v>
+        <v>2.588426041027604e-38</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.611779364201094e-38</v>
+        <v>2.596365881495712e-38</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.615366235626012e-38</v>
+        <v>2.599690190454943e-38</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.614301350038687e-38</v>
+        <v>2.598480701399599e-38</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.608799541757948e-38</v>
+        <v>2.592945978367981e-38</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.599075645102611e-38</v>
+        <v>2.583294585398372e-38</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.585344494391503e-38</v>
+        <v>2.569735086529071e-38</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.567820923943466e-38</v>
+        <v>2.552476045798387e-38</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.546719768077293e-38</v>
+        <v>2.531726027244585e-38</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.522255861111824e-38</v>
+        <v>2.50769359490597e-38</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.494644037365908e-38</v>
+        <v>2.480587312820865e-38</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.46409913115832e-38</v>
+        <v>2.450615745027512e-38</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.430835976807908e-38</v>
+        <v>2.41798745556423e-38</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.395069408633532e-38</v>
+        <v>2.382911008469345e-38</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.357014260953948e-38</v>
+        <v>2.345594967781087e-38</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.316885368088053e-38</v>
+        <v>2.306247897537817e-38</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.274897564354597e-38</v>
+        <v>2.26507836177776e-38</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>2.231265684072439e-38</v>
+        <v>2.222294924539242e-38</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.186204561560447e-38</v>
+        <v>2.178106149860599e-38</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.139929031137362e-38</v>
+        <v>2.132720601780044e-38</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.092653927122051e-38</v>
+        <v>2.086346844335911e-38</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.044594083833379e-38</v>
+        <v>2.039193441566536e-38</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>1.995964335590086e-38</v>
+        <v>1.991468957510129e-38</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>1.946979516711039e-38</v>
+        <v>1.943381956205024e-38</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>1.897854461515109e-38</v>
+        <v>1.895141001689562e-38</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>1.848804004321028e-38</v>
+        <v>1.846954658001946e-38</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.800042979447711e-38</v>
+        <v>1.799031489180559e-38</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.751786221213895e-38</v>
+        <v>1.751580059263609e-38</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.704248563938447e-38</v>
+        <v>1.70480893228943e-38</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.657644841940234e-38</v>
+        <v>1.65892667229636e-38</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.612189889537996e-38</v>
+        <v>1.614141843322609e-38</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.568098541050601e-38</v>
+        <v>1.570663009406512e-38</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.52558563079691e-38</v>
+        <v>1.528698734586402e-38</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.484865993095672e-38</v>
+        <v>1.488457582900496e-38</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.44615446226575e-38</v>
+        <v>1.450148118387126e-38</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.409665872626e-38</v>
+        <v>1.413978905084618e-38</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.375615058495181e-38</v>
+        <v>1.380158507031201e-38</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.344216854192178e-38</v>
+        <v>1.348895488265229e-38</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.315686094035761e-38</v>
+        <v>1.320398412824941e-38</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.290237609005495e-38</v>
+        <v>1.294875841527631e-38</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.267990389992115e-38</v>
+        <v>1.272443889229086e-38</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.248716950746554e-38</v>
+        <v>1.252884463954535e-38</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.23211153476125e-38</v>
+        <v>1.235903975371552e-38</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.217868385528703e-38</v>
+        <v>1.221208833147777e-38</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.205681746541359e-38</v>
+        <v>1.208505446950791e-38</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.195245861291703e-38</v>
+        <v>1.197500226448216e-38</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.186254973272213e-38</v>
+        <v>1.187899581307669e-38</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.178403325975344e-38</v>
+        <v>1.179409921196741e-38</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.171385162893575e-38</v>
+        <v>1.171737655783049e-38</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.164894727519384e-38</v>
+        <v>1.164589194734209e-38</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.158626263345229e-38</v>
+        <v>1.157670947717814e-38</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.152274013863586e-38</v>
+        <v>1.150689324401481e-38</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.145532222566935e-38</v>
+        <v>1.143350734452824e-38</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.138095132947733e-38</v>
+        <v>1.135361587539438e-38</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.129656988498465e-38</v>
+        <v>1.126428293328947e-38</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.119912032711587e-38</v>
+        <v>1.116257261488942e-38</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.108554509079577e-38</v>
+        <v>1.10455490168704e-38</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.095295507956453e-38</v>
+        <v>1.091043852924215e-38</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.080141893636758e-38</v>
+        <v>1.075731686434555e-38</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.063352864076047e-38</v>
+        <v>1.058869057725885e-38</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.045195707260317e-38</v>
+        <v>1.040714415793297e-38</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.025937711175515e-38</v>
+        <v>1.021526209631836e-38</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.005846163807635e-38</v>
+        <v>1.001562888236593e-38</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>9.851883531426786e-39</v>
+        <v>9.810829006026642e-39</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>9.642315671665874e-39</v>
+        <v>9.603446957250892e-39</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>9.432430938653786e-39</v>
+        <v>9.396067225989806e-39</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>9.224902212249942e-39</v>
+        <v>9.191274302193776e-39</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>9.022402372314341e-39</v>
+        <v>8.991652675813762e-39</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>8.827604298706946e-39</v>
+        <v>8.79978683680069e-39</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>8.643180871287208e-39</v>
+        <v>8.618261275104979e-39</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>8.471804969915108e-39</v>
+        <v>8.449660480677575e-39</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>8.316138966313014e-39</v>
+        <v>8.296558509154983e-39</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>8.177041392715277e-39</v>
+        <v>8.159738249260948e-39</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>8.051536749608634e-39</v>
+        <v>8.036175493325945e-39</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>7.936159073523303e-39</v>
+        <v>7.922359015397153e-39</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>7.827442400989194e-39</v>
+        <v>7.814777589521432e-39</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>7.721920768536622e-39</v>
+        <v>7.709919989746056e-39</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>7.61612821269552e-39</v>
+        <v>7.604274990117909e-39</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>7.5065987699961e-39</v>
+        <v>7.494331364684156e-39</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>7.389866476968473e-39</v>
+        <v>7.376577887491865e-39</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>7.262608671400289e-39</v>
+        <v>7.247655514119133e-39</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>7.126014294590173e-39</v>
+        <v>7.108996384405307e-39</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>6.986584725515933e-39</v>
+        <v>6.967674283723367e-39</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>6.851126152959909e-39</v>
+        <v>6.831086696090172e-39</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>6.726444765704818e-39</v>
+        <v>6.706631105522975e-39</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>6.619346752533343e-39</v>
+        <v>6.601704996038978e-39</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>6.536638302227884e-39</v>
+        <v>6.523705851655113e-39</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>6.484346408944247e-39</v>
+        <v>6.479180483006982e-39</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>6.455330283248699e-39</v>
+        <v>6.46029998174041e-39</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>6.431480865887812e-39</v>
+        <v>6.44726100480161e-39</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>6.394354417213664e-39</v>
+        <v>6.41989482712163e-39</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>6.32550719757838e-39</v>
+        <v>6.358032723631574e-39</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>6.211931351029507e-39</v>
+        <v>6.247375358341045e-39</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>6.064941424251288e-39</v>
+        <v>6.099885481131317e-39</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>5.902651957683582e-39</v>
+        <v>5.934868127208241e-39</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>5.743177808740399e-39</v>
+        <v>5.771628674030119e-39</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>5.601592930891932e-39</v>
+        <v>5.626255034273393e-39</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>5.479414761904302e-39</v>
+        <v>5.500491487060681e-39</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>5.374384411275849e-39</v>
+        <v>5.392086722232323e-39</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>5.284242828593048e-39</v>
+        <v>5.298789260431999e-39</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>5.206730963442133e-39</v>
+        <v>5.218347622303145e-39</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>5.139589765409594e-39</v>
+        <v>5.148510328489457e-39</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>5.080560184081878e-39</v>
+        <v>5.087025899634587e-39</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>5.02738316904528e-39</v>
+        <v>5.031642856382032e-39</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>4.977799669886298e-39</v>
+        <v>4.980109719375497e-39</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>4.929550636191245e-39</v>
+        <v>4.930175009258496e-39</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>4.880377017546565e-39</v>
+        <v>4.879587246674679e-39</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>4.828019763538655e-39</v>
+        <v>4.826094952267647e-39</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>4.770219823753972e-39</v>
+        <v>4.767446646681061e-39</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>4.70479636115952e-39</v>
+        <v>4.701468511254876e-39</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>4.631457242903901e-39</v>
+        <v>4.627862085238488e-39</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>4.551850316615065e-39</v>
+        <v>4.548255179751496e-39</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>4.467711900868363e-39</v>
+        <v>4.464363451692925e-39</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>4.380778314239153e-39</v>
+        <v>4.377902557961816e-39</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>4.292785875302558e-39</v>
+        <v>4.290588155456975e-39</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>4.20547090263394e-39</v>
+        <v>4.204135901077443e-39</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>4.120569714808655e-39</v>
+        <v>4.120261451722257e-39</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>4.03981863040183e-39</v>
+        <v>4.040680464290225e-39</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>3.964953967988825e-39</v>
+        <v>3.967108595680389e-39</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>3.897712046144981e-39</v>
+        <v>3.901261502791768e-39</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>3.839829183445455e-39</v>
+        <v>3.844854842523204e-39</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>3.79304169846563e-39</v>
+        <v>3.799604271773759e-39</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>3.758705956957346e-39</v>
+        <v>3.766834885839275e-39</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>3.736025901172781e-39</v>
+        <v>3.745659258037188e-39</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>3.723448405042028e-39</v>
+        <v>3.734411755025304e-39</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>3.719419505786108e-39</v>
+        <v>3.73142588339035e-39</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>3.722385240626071e-39</v>
+        <v>3.73503514971908e-39</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>3.73079164678295e-39</v>
+        <v>3.74357306059823e-39</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>3.743084761477798e-39</v>
+        <v>3.755373122614562e-39</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>3.75771062193165e-39</v>
+        <v>3.768768842354812e-39</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>3.773115330071447e-39</v>
+        <v>3.782093793213956e-39</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>3.799425706626648e-39</v>
+        <v>3.805741779622145e-39</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>3.891034574847158e-39</v>
+        <v>3.895810832472525e-39</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>4.112233646316176e-39</v>
+        <v>4.118617173507648e-39</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>4.489481767159155e-39</v>
+        <v>4.501265189659023e-39</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>4.988982661099494e-39</v>
+        <v>5.008407907709706e-39</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>5.571563453303343e-39</v>
+        <v>5.599125784352631e-39</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>6.198051268935504e-39</v>
+        <v>6.232499276279369e-39</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>6.829273233160642e-39</v>
+        <v>6.867608840181349e-39</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>7.426079943470733e-39</v>
+        <v>7.463583123017977e-39</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>7.95081858488001e-39</v>
+        <v>7.982623366787857e-39</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>8.368208270843813e-39</v>
+        <v>8.39180054242188e-39</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>8.64317837918401e-39</v>
+        <v>8.658617307763837e-39</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>8.740658287721266e-39</v>
+        <v>8.750576320656351e-39</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>8.632145220303275e-39</v>
+        <v>8.641464125757145e-39</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>8.352901484896226e-39</v>
+        <v>8.366075484071814e-39</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>7.974046532502325e-39</v>
+        <v>7.993512024858356e-39</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>7.567099408661511e-39</v>
+        <v>7.593257695540699e-39</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>7.203579158912588e-39</v>
+        <v>7.234796443541649e-39</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>6.948724284663854e-39</v>
+        <v>6.981495788478713e-39</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>6.797123441078769e-39</v>
+        <v>6.827919548405654e-39</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>6.698881566751764e-39</v>
+        <v>6.725310224743021e-39</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>6.603409961019562e-39</v>
+        <v>6.624234805077762e-39</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>6.460119923218656e-39</v>
+        <v>6.475260276996587e-39</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>6.219149908643567e-39</v>
+        <v>6.229668228735008e-39</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>5.863987890696947e-39</v>
+        <v>5.871513943103635e-39</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>5.424636892943271e-39</v>
+        <v>5.43056460922024e-39</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>4.934551925313511e-39</v>
+        <v>4.939979799459437e-39</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>4.427187997738812e-39</v>
+        <v>4.432919086196013e-39</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>3.936000120148934e-39</v>
+        <v>3.942542041803361e-39</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>3.494443302475392e-39</v>
+        <v>3.50200823865664e-39</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>3.135438206690481e-39</v>
+        <v>3.143946847939975e-39</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>2.873249718302026e-39</v>
+        <v>2.882469058527687e-39</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>2.699066397495992e-39</v>
+        <v>2.708780178914385e-39</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>2.602645795019248e-39</v>
+        <v>2.612665077789949e-39</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>2.573745461619162e-39</v>
+        <v>2.583908623844748e-39</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>2.60212294804286e-39</v>
+        <v>2.612295685768919e-39</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>2.677535805037575e-39</v>
+        <v>2.687611132252698e-39</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>2.789741583350479e-39</v>
+        <v>2.799639831986265e-39</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>2.928497833728613e-39</v>
+        <v>2.938166653659666e-39</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>3.083562106919407e-39</v>
+        <v>3.092976465963338e-39</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>3.244691953669777e-39</v>
+        <v>3.253854137587204e-39</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>3.401644924727194e-39</v>
+        <v>3.410584537221738e-39</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>3.544178570838689e-39</v>
+        <v>3.552952533556981e-39</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>3.662226477714466e-39</v>
+        <v>3.670917974185959e-39</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>3.750497356019255e-39</v>
+        <v>3.759187184964418e-39</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>3.808917216193617e-39</v>
+        <v>3.817652492158967e-39</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>3.837676756085936e-39</v>
+        <v>3.846469321544519e-39</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>3.836966673544753e-39</v>
+        <v>3.845793098896147e-39</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>3.806977666418517e-39</v>
+        <v>3.81577924998883e-39</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>3.747900432555785e-39</v>
+        <v>3.756583200597656e-39</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>3.65992566980494e-39</v>
+        <v>3.668360376497539e-39</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>3.543246525016822e-39</v>
+        <v>3.551268674691852e-39</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>3.400003247917466e-39</v>
+        <v>3.407430766057303e-39</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>3.237781684021696e-39</v>
+        <v>3.24446433894855e-39</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>3.065112393840718e-39</v>
+        <v>3.0709403705096e-39</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>2.890525937885777e-39</v>
+        <v>2.895429837884497e-39</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>2.722552876667638e-39</v>
+        <v>2.726503718216805e-39</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>2.569723770697673e-39</v>
+        <v>2.572732988650701e-39</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>2.44056918048669e-39</v>
+        <v>2.442688626329787e-39</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>2.34361966654592e-39</v>
+        <v>2.344941608398098e-39</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>2.287405789386481e-39</v>
+        <v>2.288062911999553e-39</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>2.280458109519352e-39</v>
+        <v>2.280623514277929e-39</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>2.331307187455691e-39</v>
+        <v>2.331194392377184e-39</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>2.448483583706448e-39</v>
+        <v>2.44834652344107e-39</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>2.640517858782914e-39</v>
+        <v>2.640650884613677e-39</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>2.913953852094542e-39</v>
+        <v>2.914683959091644e-39</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>3.250475395469278e-39</v>
+        <v>3.252064960221743e-39</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>3.61484800798432e-39</v>
+        <v>3.617428597410414e-39</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>3.971512948184962e-39</v>
+        <v>3.975084050895615e-39</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>4.284911474617755e-39</v>
+        <v>4.289340500916572e-39</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>4.519484845828248e-39</v>
+        <v>4.524507127711497e-39</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>4.645613426124012e-39</v>
+        <v>4.650858930602751e-39</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>4.687970314684875e-39</v>
+        <v>4.69320784541621e-39</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>4.700325585530107e-39</v>
+        <v>4.705593657210199e-39</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>4.917333758836924e-39</v>
+        <v>4.923138045634442e-39</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>5.755132014589604e-39</v>
+        <v>5.762460280779423e-39</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>6.821999405639167e-39</v>
+        <v>6.831150061113314e-39</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>7.638622449631924e-39</v>
+        <v>7.649084791497781e-39</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>7.774180906189238e-39</v>
+        <v>7.784723881903142e-39</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>7.309045020910133e-39</v>
+        <v>7.318652922975366e-39</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>6.630037039812015e-39</v>
+        <v>6.638470442493875e-39</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>6.124889656654684e-39</v>
+        <v>6.132685440923125e-39</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>5.937876218760799e-39</v>
+        <v>5.945778726140652e-39</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>5.81427979520867e-39</v>
+        <v>5.822313401953909e-39</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>5.624268696687765e-39</v>
+        <v>5.632112711756481e-39</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>5.376284803805826e-39</v>
+        <v>5.383666640823119e-39</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>5.083100545183335e-39</v>
+        <v>5.08980803607481e-39</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>4.757488349441429e-39</v>
+        <v>4.763369744433192e-39</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>4.412220645201361e-39</v>
+        <v>4.417184612820031e-39</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>4.060069861083436e-39</v>
+        <v>4.064085488156134e-39</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>3.713362941823638e-39</v>
+        <v>3.716458292217115e-39</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>3.37803737816753e-39</v>
+        <v>3.380278821176092e-39</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>3.0552496394783e-39</v>
+        <v>3.056726381926322e-39</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>2.746040902113151e-39</v>
+        <v>2.746864615351015e-39</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>2.451452342429237e-39</v>
+        <v>2.451757162333328e-39</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.17252513678292e-39</v>
+        <v>2.172467663755627e-39</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>1.910300461531597e-39</v>
+        <v>1.910059760501312e-39</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.665819493031687e-39</v>
+        <v>1.665597093452809e-39</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.440125746505086e-39</v>
+        <v>1.440145487696336e-39</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.234925915142341e-39</v>
+        <v>1.23539009243876e-39</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.053498428859217e-39</v>
+        <v>1.054483859665736e-39</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>8.993494312002566e-40</v>
+        <v>9.007923970143392e-40</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>7.759850657099088e-40</v>
+        <v>7.776813121215462e-40</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>6.865980010632228e-40</v>
+        <v>6.88211377851074e-40</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>6.291119863374336e-40</v>
+        <v>6.303196711417998e-40</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>5.970769410519155e-40</v>
+        <v>5.976899922853528e-40</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>5.839102754670217e-40</v>
+        <v>5.838772845775649e-40</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>5.83029399843195e-40</v>
+        <v>5.824364913143605e-40</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>5.878517244408453e-40</v>
+        <v>5.869225557916281e-40</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>5.917946595203837e-40</v>
+        <v>5.908904213052598e-40</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>5.888595304055776e-40</v>
+        <v>5.884556982902501e-40</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>5.789964642315603e-40</v>
+        <v>5.794459541116054e-40</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>5.656293011041289e-40</v>
+        <v>5.670241671136875e-40</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>5.522254117543714e-40</v>
+        <v>5.543951131430593e-40</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>5.42252166913338e-40</v>
+        <v>5.447635680462471e-40</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>5.391594632401868e-40</v>
+        <v>5.413184340332196e-40</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>5.437134482308093e-40</v>
+        <v>5.44810666446259e-40</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>5.511296628229416e-40</v>
+        <v>5.509489893873248e-40</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>5.561807114521001e-40</v>
+        <v>5.550366999320352e-40</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>5.570347391670135e-40</v>
+        <v>5.55419197585823e-40</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>5.543441338962343e-40</v>
+        <v>5.526675425549705e-40</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>5.488181266718518e-40</v>
+        <v>5.474037214115691e-40</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>5.411659485259632e-40</v>
+        <v>5.402497207277172e-40</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>5.320968304906434e-40</v>
+        <v>5.318275270754929e-40</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>5.22320003597997e-40</v>
+        <v>5.227591270270011e-40</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>5.125408355517234e-40</v>
+        <v>5.136631290288283e-40</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>5.032034605577469e-40</v>
+        <v>5.049297168500839e-40</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>4.943292033658908e-40</v>
+        <v>4.965793662612227e-40</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>4.859008426668176e-40</v>
+        <v>4.885988480476676e-40</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>4.779011571512154e-40</v>
+        <v>4.809749329948658e-40</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>4.703129255097691e-40</v>
+        <v>4.736943918882614e-40</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>4.631189264331445e-40</v>
+        <v>4.667439955132803e-40</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>4.563019386120275e-40</v>
+        <v>4.601105146553677e-40</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>4.498447407371029e-40</v>
+        <v>4.537807200999675e-40</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>4.437301114990379e-40</v>
+        <v>4.477413826325071e-40</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>4.379408295885229e-40</v>
+        <v>4.419792730384358e-40</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>4.324596736962263e-40</v>
+        <v>4.364811621031818e-40</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>4.272694225128326e-40</v>
+        <v>4.31233820612189e-40</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>4.223528547290249e-40</v>
+        <v>4.262240193509004e-40</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>4.176927490354738e-40</v>
+        <v>4.214385291047453e-40</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>4.132718841228624e-40</v>
+        <v>4.168641206591671e-40</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>4.090730386818737e-40</v>
+        <v>4.12487564799608e-40</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>4.050789914031791e-40</v>
+        <v>4.082956323114989e-40</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>4.012725209774617e-40</v>
+        <v>4.042750939802822e-40</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>3.976364060954034e-40</v>
+        <v>4.004127205914e-40</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>3.94153425447677e-40</v>
+        <v>3.966952829302836e-40</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>3.908063577249676e-40</v>
+        <v>3.931095517823786e-40</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>3.875779816179484e-40</v>
+        <v>3.89642297933117e-40</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>3.844510758173015e-40</v>
+        <v>3.862802921679405e-40</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>3.814084190137057e-40</v>
+        <v>3.830103052722879e-40</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>3.78432789897843e-40</v>
+        <v>3.798191080316003e-40</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>3.755069671603868e-40</v>
+        <v>3.766934712313107e-40</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>3.726169938616447e-40</v>
+        <v>3.736228627605051e-40</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>3.69767092615301e-40</v>
+        <v>3.706117709089215e-40</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>3.669677774410602e-40</v>
+        <v>3.676698820829495e-40</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>3.642295684381225e-40</v>
+        <v>3.6480688771201e-40</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.61562985705681e-40</v>
+        <v>3.620324792255163e-40</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.589785493429362e-40</v>
+        <v>3.593563480528894e-40</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.564867794490885e-40</v>
+        <v>3.5678818562355e-40</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.540981961233313e-40</v>
+        <v>3.54337683366912e-40</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.51823319464865e-40</v>
+        <v>3.520145327123961e-40</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.496726695728892e-40</v>
+        <v>3.498284250894225e-40</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.476567665465982e-40</v>
+        <v>3.477890519274058e-40</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.457861304851936e-40</v>
+        <v>3.45906104655768e-40</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.440712814878702e-40</v>
+        <v>3.441892747039244e-40</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.425227396538274e-40</v>
+        <v>3.426482535012948e-40</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>3.411510250822646e-40</v>
+        <v>3.412927324772989e-40</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>3.399666578723773e-40</v>
+        <v>3.401324030613527e-40</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>3.389801581233649e-40</v>
+        <v>3.39176956682876e-40</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>3.382020459344258e-40</v>
+        <v>3.384360847712877e-40</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>3.376428414047567e-40</v>
+        <v>3.379194787560048e-40</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>3.373130646335565e-40</v>
+        <v>3.376368300664465e-40</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>3.37223235720023e-40</v>
+        <v>3.375978301320314e-40</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>3.373838747633542e-40</v>
+        <v>3.378121703821775e-40</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>3.378055018627477e-40</v>
+        <v>3.38289542246303e-40</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>3.384986371174023e-40</v>
+        <v>3.390396371538271e-40</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>3.394738006265157e-40</v>
+        <v>3.40072146534168e-40</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>3.407415124892847e-40</v>
+        <v>3.413967618167427e-40</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>3.423122928049095e-40</v>
+        <v>3.430231744309721e-40</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>3.441966616725872e-40</v>
+        <v>3.449610758062735e-40</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>3.464051391915135e-40</v>
+        <v>3.47220157372063e-40</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>3.489482454608905e-40</v>
+        <v>3.498101105577632e-40</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>3.518365005799144e-40</v>
+        <v>3.527406267927907e-40</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>3.5508042464778e-40</v>
+        <v>3.560213975065608e-40</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>3.586905377636913e-40</v>
+        <v>3.596621141284978e-40</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>3.626773600268396e-40</v>
+        <v>3.636724680880134e-40</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>3.670514115364303e-40</v>
+        <v>3.680621508145334e-40</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>3.718312878573804e-40</v>
+        <v>3.728491618260293e-40</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>3.770737415792186e-40</v>
+        <v>3.780907568209112e-40</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>3.828467843315524e-40</v>
+        <v>3.838557748669269e-40</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>3.892184293759165e-40</v>
+        <v>3.902130567107601e-40</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>3.962566899738225e-40</v>
+        <v>3.972314430990718e-40</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>4.040295793868072e-40</v>
+        <v>4.049797747785481e-40</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>4.126051108763883e-40</v>
+        <v>4.135268924958558e-40</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>4.220512977040806e-40</v>
+        <v>4.22941636997659e-40</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>4.32436153131425e-40</v>
+        <v>4.332928490306479e-40</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>4.438276904199372e-40</v>
+        <v>4.446493693414876e-40</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>4.562939228311294e-40</v>
+        <v>4.570800386768391e-40</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>4.698921680430545e-40</v>
+        <v>4.706429669958566e-40</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>4.844886946855401e-40</v>
+        <v>4.852045863798278e-40</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>4.997850281742092e-40</v>
+        <v>5.004660434507049e-40</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>5.154772957293742e-40</v>
+        <v>5.161230688672035e-40</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>5.312616245712928e-40</v>
+        <v>5.31871393287985e-40</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>5.468341419202781e-40</v>
+        <v>5.474067473717662e-40</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>5.61890974996601e-40</v>
+        <v>5.624248617772214e-40</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>5.76128251020534e-40</v>
+        <v>5.766214671630271e-40</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>5.89242097212388e-40</v>
+        <v>5.896922941878971e-40</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>6.009286407924343e-40</v>
+        <v>6.013330735105066e-40</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>6.1088400898095e-40</v>
+        <v>6.112395357895364e-40</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>6.188043289982381e-40</v>
+        <v>6.191074116836929e-40</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>6.243857280645734e-40</v>
+        <v>6.246324318516545e-40</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>6.2732433340024e-40</v>
+        <v>6.275103269521091e-40</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>6.273162722255278e-40</v>
+        <v>6.274368276437496e-40</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>6.242259676929361e-40</v>
+        <v>6.242765624013417e-40</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>6.186942977395377e-40</v>
+        <v>6.186733913523178e-40</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>6.115859135594925e-40</v>
+        <v>6.114957481709643e-40</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>6.037654872344061e-40</v>
+        <v>6.036120874937135e-40</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>5.960976908458618e-40</v>
+        <v>5.958908639569754e-40</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>5.894471964754649e-40</v>
+        <v>5.892005321971823e-40</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>5.84678676204817e-40</v>
+        <v>5.844095468507625e-40</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>5.826568021155073e-40</v>
+        <v>5.82386362554132e-40</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>5.842453011917275e-40</v>
+        <v>5.839984831837261e-40</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>5.90015132975699e-40</v>
+        <v>5.898188910479164e-40</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>5.998314918664548e-40</v>
+        <v>5.997105746960093e-40</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>6.134553614045828e-40</v>
+        <v>6.134316874359611e-40</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>6.306477251306577e-40</v>
+        <v>6.307403825757141e-40</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>6.51169566585302e-40</v>
+        <v>6.513948134232594e-40</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>6.747818693090935e-40</v>
+        <v>6.751531332865427e-40</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>7.012456168425988e-40</v>
+        <v>7.017734954734988e-40</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>7.303217927264572e-40</v>
+        <v>7.310140532921352e-40</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>7.617439252934917e-40</v>
+        <v>7.62605229804272e-40</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>7.949105196486696e-40</v>
+        <v>7.959390686775803e-40</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>8.289961613358325e-40</v>
+        <v>8.301814508568755e-40</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>8.631713384896008e-40</v>
+        <v>8.644941188310854e-40</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>8.966065392446877e-40</v>
+        <v>8.980388150892308e-40</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>9.284722517357135e-40</v>
+        <v>9.299772821202395e-40</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>9.579389640973042e-40</v>
+        <v>9.594712624130453e-40</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>9.841771644641647e-40</v>
+        <v>9.856824984566601e-40</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>1.006357340970919e-39</v>
+        <v>1.007772732740016e-39</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.023673589049216e-39</v>
+        <v>1.024928900861471e-39</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.035656082131961e-39</v>
+        <v>1.036696592349697e-39</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.042085203708835e-39</v>
+        <v>1.042888414568311e-39</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.042747300972652e-39</v>
+        <v>1.043323339193852e-39</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.037428721116204e-39</v>
+        <v>1.03782033790284e-39</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.025915811332305e-39</v>
+        <v>1.026198382371817e-39</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.00799503757504e-39</v>
+        <v>1.008276551142524e-39</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>9.836455565034937e-40</v>
+        <v>9.840473120406076e-40</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>9.534310587088225e-40</v>
+        <v>9.540291152939118e-40</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>9.18025659021108e-40</v>
+        <v>9.188397744063187e-40</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>8.781034722789725e-40</v>
+        <v>8.790971028946689e-40</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>8.343615643585505e-40</v>
+        <v>8.354538453099497e-40</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>7.875868376614274e-40</v>
+        <v>7.886994756533483e-40</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>7.385881723128031e-40</v>
+        <v>7.39656917595239e-40</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>6.881744484377058e-40</v>
+        <v>6.891490948058251e-40</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>6.371545461612946e-40</v>
+        <v>6.379989309554409e-40</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>5.863373456086873e-40</v>
+        <v>5.870293497143787e-40</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>5.365317269050441e-40</v>
+        <v>5.370632747529741e-40</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>4.885465701753917e-40</v>
+        <v>4.889236297414284e-40</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>4.431907555449319e-40</v>
+        <v>4.434333383501186e-40</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>4.01162948369676e-40</v>
+        <v>4.013029996270612e-40</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>3.625271856278134e-40</v>
+        <v>3.625964354832016e-40</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>3.271208184914474e-40</v>
+        <v>3.271464425526484e-40</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>2.947809152199375e-40</v>
+        <v>2.947855291409397e-40</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>2.653445440727407e-40</v>
+        <v>2.653462035537105e-40</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>2.386487733093032e-40</v>
+        <v>2.386609740965856e-40</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>2.145306711890006e-40</v>
+        <v>2.145623490751186e-40</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>1.928273059712814e-40</v>
+        <v>1.928828367949365e-40</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.733758795733072e-40</v>
+        <v>1.734550962765167e-40</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.56026553231112e-40</v>
+        <v>1.56126399702198e-40</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>1.406530910463696e-40</v>
+        <v>1.407706342715992e-40</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>1.27131762446971e-40</v>
+        <v>1.27264512235406e-40</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>1.153388368608495e-40</v>
+        <v>1.154847458443463e-40</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>1.05150583715932e-40</v>
+        <v>1.053080473491419e-40</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>9.644327244011882e-41</v>
+        <v>9.661112900048762e-41</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>8.909317246133835e-41</v>
+        <v>8.927070304910668e-41</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>8.297655320751407e-41</v>
+        <v>8.316348174571727e-41</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>7.796838476710212e-41</v>
+        <v>7.8164835530343e-41</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>7.391282903416482e-41</v>
+        <v>7.411831962783598e-41</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>7.062271781258889e-41</v>
+        <v>7.08351350930012e-41</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>6.790947917841535e-41</v>
+        <v>6.81250333694503e-41</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>6.558454120769629e-41</v>
+        <v>6.579776590080586e-41</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>6.345933197647446e-41</v>
+        <v>6.366308413068117e-41</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>6.134527956079893e-41</v>
+        <v>6.153073950269593e-41</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>5.905381203671871e-41</v>
+        <v>5.921048346046963e-41</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>5.639635748027666e-41</v>
+        <v>5.651206744761569e-41</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>5.329204541657284e-41</v>
+        <v>5.335610442743134e-41</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>5.012519056903789e-41</v>
+        <v>5.014204157085805e-41</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>4.740567378905675e-41</v>
+        <v>4.739857641536181e-41</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>4.563416201414849e-41</v>
+        <v>4.564469031212559e-41</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>4.471646479098683e-41</v>
+        <v>4.477208329342319e-41</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>4.375505778059211e-41</v>
+        <v>4.382644681760614e-41</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>4.268698842660495e-41</v>
+        <v>4.274065348956545e-41</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>4.181137855701237e-41</v>
+        <v>4.183219077337249e-41</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>4.142822549749958e-41</v>
+        <v>4.141947613377916e-41</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>4.182276587529129e-41</v>
+        <v>4.180555119740015e-41</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>4.293920946470784e-41</v>
+        <v>4.2938218731067e-41</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>4.437988657504092e-41</v>
+        <v>4.440915449781151e-41</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>4.573219629435963e-41</v>
+        <v>4.579448079337377e-41</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>4.658353771073758e-41</v>
+        <v>4.667031991349842e-41</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>4.652153017781226e-41</v>
+        <v>4.661301992870986e-41</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>4.536272210384207e-41</v>
+        <v>4.543358386855242e-41</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>4.35855076127947e-41</v>
+        <v>4.362141436350587e-41</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>4.178718697966077e-41</v>
+        <v>4.178779423982383e-41</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>4.053886686722898e-41</v>
+        <v>4.051726392283346e-41</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>3.992020861143258e-41</v>
+        <v>3.989262212072622e-41</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>3.957417620385604e-41</v>
+        <v>3.955082084532921e-41</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>3.912853752575429e-41</v>
+        <v>3.911329762074554e-41</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>3.828542436647935e-41</v>
+        <v>3.827707509819056e-41</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>3.706176455027486e-41</v>
+        <v>3.705914160739983e-41</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>3.555776977453053e-41</v>
+        <v>3.556113705572548e-41</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>3.38736522667807e-41</v>
+        <v>3.388470188937032e-41</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>3.21096242545604e-41</v>
+        <v>3.213147655453783e-41</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>3.036589282005141e-41</v>
+        <v>3.040309602281363e-41</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>2.872421618601766e-41</v>
+        <v>2.878156581423995e-41</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>2.720645150679166e-41</v>
+        <v>2.728515714997797e-41</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.582231983020391e-41</v>
+        <v>2.591922852259684e-41</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.458154220408912e-41</v>
+        <v>2.46891384246698e-41</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>2.349383967628149e-41</v>
+        <v>2.360024534876963e-41</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>2.256893329461232e-41</v>
+        <v>2.265790778746621e-41</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>2.181654338783552e-41</v>
+        <v>2.186748378875862e-41</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>2.121286196901507e-41</v>
+        <v>2.121359860609029e-41</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>2.065658046873452e-41</v>
+        <v>2.063151494842543e-41</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>2.013335815121139e-41</v>
+        <v>2.010663947752695e-41</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>1.964661017296251e-41</v>
+        <v>1.963479848504867e-41</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>1.919975169050344e-41</v>
+        <v>1.921181826264314e-41</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>1.879619786035143e-41</v>
+        <v>1.883352510196456e-41</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>1.843808807030509e-41</v>
+        <v>1.849562410732265e-41</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>1.812151302660253e-41</v>
+        <v>1.819324580894027e-41</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>1.784077263239812e-41</v>
+        <v>1.792135062574599e-41</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>1.75901665159397e-41</v>
+        <v>1.767489895055389e-41</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>1.736399430547586e-41</v>
+        <v>1.744885117617881e-41</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>1.715655562925516e-41</v>
+        <v>1.723816769543552e-41</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.696215011552556e-41</v>
+        <v>1.703780890113822e-41</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.677507739253561e-41</v>
+        <v>1.684273518610169e-41</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.658963708853383e-41</v>
+        <v>1.664790694314069e-41</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.640012883176823e-41</v>
+        <v>1.644828456506945e-41</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.620085225048753e-41</v>
+        <v>1.623882844470291e-41</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.598611872186777e-41</v>
+        <v>1.601450965752786e-41</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.575249731493563e-41</v>
+        <v>1.577235207760624e-41</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.550148438814665e-41</v>
+        <v>1.551385970002096e-41</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.523522628508927e-41</v>
+        <v>1.524112751660855e-41</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.49558693493526e-41</v>
+        <v>1.495625051920626e-41</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.466555992452583e-41</v>
+        <v>1.466132369965141e-41</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.436644435419732e-41</v>
+        <v>1.435844204978046e-41</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.406066898195622e-41</v>
+        <v>1.404970056143071e-41</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.375038015139173e-41</v>
+        <v>1.373719422643946e-41</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.343772420609217e-41</v>
+        <v>1.342301803664316e-41</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.312484748964701e-41</v>
+        <v>1.310926698387942e-41</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.281389634564458e-41</v>
+        <v>1.279803605998468e-41</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.250701711767407e-41</v>
+        <v>1.249142025679625e-41</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.220635614932465e-41</v>
+        <v>1.219151456615142e-41</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.191405978418466e-41</v>
+        <v>1.190041397988667e-41</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.163227436584328e-41</v>
+        <v>1.162021348983929e-41</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>1.136314623788966e-41</v>
+        <v>1.135300808784655e-41</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>1.11088217439122e-41</v>
+        <v>1.110089276574498e-41</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>1.087144722750005e-41</v>
+        <v>1.086596251537186e-41</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.065281099639364e-41</v>
+        <v>1.064994624673148e-41</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.045304994704519e-41</v>
+        <v>1.045288434709079e-41</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.027182516469952e-41</v>
+        <v>1.027433069981053e-41</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.010879769042025e-41</v>
+        <v>1.011383914307739e-41</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>9.963628565271507e-42</v>
+        <v>9.970963515078595e-42</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>9.835978830317238e-42</v>
+        <v>9.845257654001153e-42</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>9.725509526621491e-42</v>
+        <v>9.736275398032187e-42</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>9.631881695248011e-42</v>
+        <v>9.643570585358534e-42</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>9.554756377260922e-42</v>
+        <v>9.566697054167382e-42</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>9.493794613724034e-42</v>
+        <v>9.50520864264563e-42</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>9.448657445701376e-42</v>
+        <v>9.458659188980378e-42</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>9.419005914256917e-42</v>
+        <v>9.426602531358676e-42</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>9.404501060454556e-42</v>
+        <v>9.408592507967495e-42</v>
       </c>
     </row>
   </sheetData>
